--- a/Laba6/Brundown_Chart.xlsx
+++ b/Laba6/Brundown_Chart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HydraTyan\Desktop\Information-Systems-Tools\Lab6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\ISIS\-Information-System-Tools\Laba6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433AA927-CA8C-4497-B091-67582300D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="backlog" sheetId="1" r:id="rId1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +226,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -302,7 +301,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9992-4DC3-A55F-6B910F1857C4}"/>
             </c:ext>
@@ -354,7 +353,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9992-4DC3-A55F-6B910F1857C4}"/>
             </c:ext>
@@ -406,7 +405,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9992-4DC3-A55F-6B910F1857C4}"/>
             </c:ext>
@@ -480,7 +479,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9992-4DC3-A55F-6B910F1857C4}"/>
             </c:ext>
@@ -556,7 +555,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-9992-4DC3-A55F-6B910F1857C4}"/>
             </c:ext>
@@ -641,7 +640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C9C-4C91-9FE6-D73958028913}"/>
             </c:ext>
@@ -655,11 +654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2054253840"/>
-        <c:axId val="2108636288"/>
+        <c:axId val="-629566704"/>
+        <c:axId val="-629562896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2054253840"/>
+        <c:axId val="-629566704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -717,12 +716,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108636288"/>
+        <c:crossAx val="-629562896"/>
         <c:crossesAt val="-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108636288"/>
+        <c:axId val="-629562896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -781,7 +780,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054253840"/>
+        <c:crossAx val="-629566704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -795,14 +794,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1413,7 +1412,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541BB640-956E-48E2-AF7A-BCCBF859530C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{541BB640-956E-48E2-AF7A-BCCBF859530C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,20 +1697,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1818,7 +1817,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1835,95 +1834,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
     </row>
   </sheetData>
@@ -1936,21 +1935,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8C1388-A294-484C-80DB-819D9B9515A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>$B2-$J$2</f>
         <v>-2</v>
@@ -2014,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A9" si="0">$B3-$J$2</f>
         <v>-1</v>
@@ -2050,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2086,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2113,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2132,7 +2131,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2151,7 +2150,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2170,7 +2169,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2189,7 +2188,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2197,7 +2196,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2205,7 +2204,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2213,7 +2212,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2234,14 +2233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33026C-7DBF-4B6C-8161-EEAC909FC9DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
